--- a/public/template/firefighters_template.xlsx
+++ b/public/template/firefighters_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\clothing-management-system\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CF1A3-4DA0-4272-9A34-0A14A773F1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3916460-DBB0-4FA1-AF53-7DF764C45790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>编号</t>
   </si>
@@ -45,51 +46,12 @@
     <t>职务</t>
   </si>
   <si>
-    <t>中队</t>
-  </si>
-  <si>
-    <t>警衔</t>
-  </si>
-  <si>
-    <t>气候区</t>
-  </si>
-  <si>
     <t>帽类号</t>
   </si>
   <si>
-    <t>服装号</t>
-  </si>
-  <si>
     <t>鞋类号</t>
   </si>
   <si>
-    <t>作训 冬帽号</t>
-  </si>
-  <si>
-    <t>毛衣 冬服号</t>
-  </si>
-  <si>
-    <t>大衣 冬鞋号</t>
-  </si>
-  <si>
-    <t>衬衣号</t>
-  </si>
-  <si>
-    <t>肩章号</t>
-  </si>
-  <si>
-    <t>雨衣 体服号</t>
-  </si>
-  <si>
-    <t>礼服</t>
-  </si>
-  <si>
-    <t>常服</t>
-  </si>
-  <si>
-    <t>裤裙</t>
-  </si>
-  <si>
     <t>身高</t>
   </si>
   <si>
@@ -100,39 +62,6 @@
   </si>
   <si>
     <t>头围</t>
-  </si>
-  <si>
-    <t>领围</t>
-  </si>
-  <si>
-    <t>脚长</t>
-  </si>
-  <si>
-    <t>跖围</t>
-  </si>
-  <si>
-    <t>入伍日期</t>
-  </si>
-  <si>
-    <t>一级士官</t>
-  </si>
-  <si>
-    <t>二级士官</t>
-  </si>
-  <si>
-    <t>提干日期</t>
-  </si>
-  <si>
-    <t>现职日期</t>
-  </si>
-  <si>
-    <t>现衔日期</t>
-  </si>
-  <si>
-    <t>职级</t>
-  </si>
-  <si>
-    <t>形类</t>
   </si>
   <si>
     <t>备注</t>
@@ -146,24 +75,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>可用余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210106190001012417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>210106190001012418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专职消防员</t>
+  </si>
+  <si>
+    <t>司令部</t>
+  </si>
+  <si>
+    <t>刘二堡消防救援站</t>
+  </si>
+  <si>
+    <t>服装号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160/84</t>
+  </si>
+  <si>
+    <t>160/92</t>
+  </si>
+  <si>
+    <t>165/88</t>
+  </si>
+  <si>
+    <t>165/92</t>
+  </si>
+  <si>
+    <t>165/92-96</t>
+  </si>
+  <si>
+    <t>165/96</t>
+  </si>
+  <si>
+    <t>165/100</t>
+  </si>
+  <si>
+    <t>165/104</t>
+  </si>
+  <si>
+    <t>165/108</t>
+  </si>
+  <si>
+    <t>170/88</t>
+  </si>
+  <si>
+    <t>170/92</t>
+  </si>
+  <si>
+    <t>170/92-96</t>
+  </si>
+  <si>
+    <t>170/96</t>
+  </si>
+  <si>
+    <t>170/100</t>
+  </si>
+  <si>
+    <t>170/104-108</t>
+  </si>
+  <si>
+    <t>175/88</t>
+  </si>
+  <si>
+    <t>175/92</t>
+  </si>
+  <si>
+    <t>175/92-96</t>
+  </si>
+  <si>
+    <t>175/96</t>
+  </si>
+  <si>
+    <t>175/100</t>
+  </si>
+  <si>
+    <t>175/104</t>
+  </si>
+  <si>
+    <t>175/104-108</t>
+  </si>
+  <si>
+    <t>175/108</t>
+  </si>
+  <si>
+    <t>175/120-124</t>
+  </si>
+  <si>
+    <t>180/92-96</t>
+  </si>
+  <si>
+    <t>180/96</t>
+  </si>
+  <si>
+    <t>180/100</t>
+  </si>
+  <si>
+    <t>180/100-104</t>
+  </si>
+  <si>
+    <t>180/104</t>
+  </si>
+  <si>
+    <t>180/104-108</t>
+  </si>
+  <si>
+    <t>180/108</t>
+  </si>
+  <si>
+    <t>180/112-116</t>
+  </si>
+  <si>
+    <t>180/116</t>
+  </si>
+  <si>
+    <t>180/120</t>
+  </si>
+  <si>
+    <t>180/124</t>
+  </si>
+  <si>
+    <t>185/92-96</t>
+  </si>
+  <si>
+    <t>185/96</t>
+  </si>
+  <si>
+    <t>185/100</t>
+  </si>
+  <si>
+    <t>185/100-104</t>
+  </si>
+  <si>
+    <t>185/104</t>
+  </si>
+  <si>
+    <t>185/104-108</t>
+  </si>
+  <si>
+    <t>185/108</t>
+  </si>
+  <si>
+    <t>185/112</t>
+  </si>
+  <si>
+    <t>185/112-116</t>
+  </si>
+  <si>
+    <t>185/116</t>
+  </si>
+  <si>
+    <t>185/120</t>
+  </si>
+  <si>
+    <t>185/124</t>
+  </si>
+  <si>
+    <t>190/104</t>
+  </si>
+  <si>
+    <t>195/112-116</t>
+  </si>
+  <si>
+    <t>195/136</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>请选择服装号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160/84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160/88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年</t>
+  </si>
+  <si>
+    <t>6年</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -246,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,9 +391,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,6 +401,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,77 +698,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="6.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.75" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.4140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.58203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.75" style="1" customWidth="1"/>
-    <col min="35" max="37" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-    </row>
-    <row r="2" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +757,7 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -645,334 +767,476 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45636</v>
+      <c r="D3" s="10">
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>35</v>
       </c>
-      <c r="F3" s="2">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8</v>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I3" s="2">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="2">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="L3" s="2">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="M3" s="2">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="N3" s="2">
+        <v>80</v>
+      </c>
+      <c r="O3" s="2">
+        <v>58</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-      <c r="P3" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>17</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="2">
-        <v>19</v>
-      </c>
-      <c r="T3" s="2">
-        <v>20</v>
-      </c>
-      <c r="U3" s="2">
-        <v>21</v>
-      </c>
-      <c r="V3" s="2">
-        <v>22</v>
-      </c>
-      <c r="W3" s="2">
-        <v>23</v>
-      </c>
-      <c r="X3" s="2">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>30</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>36</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5">
-        <v>36528</v>
+      <c r="D4" s="10">
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>35</v>
       </c>
-      <c r="F4" s="6">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6">
-        <v>8</v>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I4" s="6">
-        <v>9</v>
-      </c>
-      <c r="J4" s="7">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="6">
+        <v>285</v>
       </c>
       <c r="L4" s="7">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="N4" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O4" s="7">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>17</v>
-      </c>
-      <c r="R4" s="7">
-        <v>18</v>
-      </c>
-      <c r="S4" s="7">
-        <v>19</v>
-      </c>
-      <c r="T4" s="7">
-        <v>20</v>
-      </c>
-      <c r="U4" s="7">
+        <v>59</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="8">
-        <v>22</v>
-      </c>
-      <c r="W4" s="8">
-        <v>23</v>
-      </c>
-      <c r="X4" s="8">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>36528</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>36529</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>36530</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>36531</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>36532</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>36533</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>35</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>36</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q4" s="2"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73FB4E11-E62A-474C-8782-AB87CA7936F7}">
+      <formula1>"请选择性别,男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{2B710BAE-1CA3-4ED9-92E8-119B0270EB37}">
+      <formula1>"请选择职务,专职消防员,文职雇员,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{50F7FD49-30F9-40A9-85F5-8F1BAC7625FC}">
+      <formula1>"请选择单位,司令部,政治部组织干部科,财务科,防火监督科,综合指导科,战勤保障科,作战训练科,装备科,政治部队务督察科,指挥中心,办公室,公用,太子河大队,白塔大队,宏伟区消防救援大队,灯塔市消防救援大队,文圣区消防救援大队,辽阳县大队,弓长岭区消防救援大队,雷锋街消防救援站,汤泉谷消防救援站,佟二堡消防站,兆麟西路消防站,铧子消防站,万和一路消防救援站,安康路消防救援站,文昌街消防站,腾飞街,刘二堡消防救援站,黄泥洼消防救援站,下达河消防救援站,备用,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{B70E0FB8-5E4F-4F99-A2F8-AEA42F22A064}">
+      <formula1>"请选择胸围,84,88,92,96,100,104,108,112,116,120,124,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{1019DDB7-6895-4010-98C6-5263D71796CB}">
+      <formula1>"请选择腰围,74,80,86,92,96,100,104,108,112,116,120,124,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{288454FA-3707-4C0D-8996-4B4F71FAA3AF}">
+      <formula1>"请选择头围,54,55,56,57,58,59,60,61,62,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{77F38F87-39D6-4DD6-A796-26D6F577738B}">
+      <formula1>"请选择鞋号,220,225,230,235,240,245,250,255,260,265,270,275,280,285,290,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{D9432186-F961-4A21-839C-F90D7843E6A6}">
+      <formula1>"请选择帽号,55,56,57,58,59,60,61,62,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{CFDAA08A-F45F-4206-8215-7EEBF01943EB}">
+      <formula1>"请选择工作年限,1年,2年,3年,4年,5年,6年,7年,8年,9年,10年含以上,其它"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88643746-5179-471F-9FC6-AE6ABE210E08}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$53</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76D7575-CC58-43BD-A08D-844A0B4F7CE4}">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template/firefighters_template.xlsx
+++ b/public/template/firefighters_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\clothing-management-system\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3916460-DBB0-4FA1-AF53-7DF764C45790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B875E-A8A7-453B-B480-C58689F25759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>编号</t>
   </si>
@@ -288,6 +288,16 @@
   </si>
   <si>
     <t>6年</t>
+  </si>
+  <si>
+    <t>经费来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大队经费</t>
+  </si>
+  <si>
+    <t>支队经费</t>
   </si>
 </sst>
 </file>
@@ -295,8 +305,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -394,13 +404,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +423,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -709,45 +719,46 @@
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="12" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.08203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="1"/>
+    <col min="16" max="17" width="12.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +768,7 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -775,7 +786,7 @@
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -797,10 +808,13 @@
         <v>16</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -810,7 +824,7 @@
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="2">
@@ -849,12 +863,15 @@
       <c r="P3" s="2">
         <v>5000</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -864,7 +881,7 @@
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -903,15 +920,18 @@
       <c r="P4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{73FB4E11-E62A-474C-8782-AB87CA7936F7}">
       <formula1>"请选择性别,男,女"</formula1>
     </dataValidation>
@@ -939,6 +959,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{CFDAA08A-F45F-4206-8215-7EEBF01943EB}">
       <formula1>"请选择工作年限,1年,2年,3年,4年,5年,6年,7年,8年,9年,10年含以上,其它"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{8C7B8740-828D-457B-BF53-C269ADBC81BE}">
+      <formula1>"请选择经费来源,支队经费,大队经费,其它"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -961,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76D7575-CC58-43BD-A08D-844A0B4F7CE4}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
